--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H2">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I2">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J2">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4579486666666667</v>
+        <v>0.4865679999999999</v>
       </c>
       <c r="N2">
-        <v>1.373846</v>
+        <v>1.459704</v>
       </c>
       <c r="O2">
-        <v>0.2208676086263132</v>
+        <v>0.2260283549680654</v>
       </c>
       <c r="P2">
-        <v>0.2208676086263132</v>
+        <v>0.2260283549680655</v>
       </c>
       <c r="Q2">
-        <v>0.01199428617822222</v>
+        <v>0.03747952209333333</v>
       </c>
       <c r="R2">
-        <v>0.107948575604</v>
+        <v>0.33731569884</v>
       </c>
       <c r="S2">
-        <v>0.001730026359457301</v>
+        <v>0.005106063067653532</v>
       </c>
       <c r="T2">
-        <v>0.001730026359457301</v>
+        <v>0.005106063067653534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H3">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I3">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J3">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>3.764767</v>
       </c>
       <c r="O3">
-        <v>0.6052462097827987</v>
+        <v>0.5829566075369108</v>
       </c>
       <c r="P3">
-        <v>0.6052462097827989</v>
+        <v>0.582956607536911</v>
       </c>
       <c r="Q3">
-        <v>0.03286808913977778</v>
+        <v>0.09666457579944444</v>
       </c>
       <c r="R3">
-        <v>0.295812802258</v>
+        <v>0.8699811821950001</v>
       </c>
       <c r="S3">
-        <v>0.00474081239616011</v>
+        <v>0.01316920261712017</v>
       </c>
       <c r="T3">
-        <v>0.004740812396160112</v>
+        <v>0.01316920261712018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.07702833333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.231085</v>
+      </c>
+      <c r="I4">
+        <v>0.02259036512642383</v>
+      </c>
+      <c r="J4">
+        <v>0.02259036512642383</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.02619133333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.078574</v>
-      </c>
-      <c r="I4">
-        <v>0.00783286589743605</v>
-      </c>
-      <c r="J4">
-        <v>0.007832865897436052</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.07098500000000001</v>
+        <v>0.000891</v>
       </c>
       <c r="N4">
-        <v>0.212955</v>
+        <v>0.002673</v>
       </c>
       <c r="O4">
-        <v>0.0342359053307405</v>
+        <v>0.0004139015806147266</v>
       </c>
       <c r="P4">
-        <v>0.0342359053307405</v>
+        <v>0.0004139015806147268</v>
       </c>
       <c r="Q4">
-        <v>0.001859191796666667</v>
+        <v>6.8632245E-05</v>
       </c>
       <c r="R4">
-        <v>0.01673272617</v>
+        <v>0.000617690205</v>
       </c>
       <c r="S4">
-        <v>0.0002681652553330064</v>
+        <v>9.350187832490623E-06</v>
       </c>
       <c r="T4">
-        <v>0.0002681652553330064</v>
+        <v>9.350187832490627E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02619133333333333</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H5">
-        <v>0.078574</v>
+        <v>0.231085</v>
       </c>
       <c r="I5">
-        <v>0.00783286589743605</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J5">
-        <v>0.007832865897436052</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.289552</v>
+        <v>0.4094323333333333</v>
       </c>
       <c r="N5">
-        <v>0.868656</v>
+        <v>1.228297</v>
       </c>
       <c r="O5">
-        <v>0.1396502762601475</v>
+        <v>0.1901960605178926</v>
       </c>
       <c r="P5">
-        <v>0.1396502762601475</v>
+        <v>0.1901960605178926</v>
       </c>
       <c r="Q5">
-        <v>0.007583752949333332</v>
+        <v>0.03153789024944445</v>
       </c>
       <c r="R5">
-        <v>0.068253776544</v>
+        <v>0.283841012245</v>
       </c>
       <c r="S5">
-        <v>0.001093861886485633</v>
+        <v>0.004296598452706597</v>
       </c>
       <c r="T5">
-        <v>0.001093861886485633</v>
+        <v>0.004296598452706598</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.276419666666667</v>
+        <v>0.07702833333333334</v>
       </c>
       <c r="H6">
-        <v>9.829259</v>
+        <v>0.231085</v>
       </c>
       <c r="I6">
-        <v>0.9798567925543612</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="J6">
-        <v>0.9798567925543613</v>
+        <v>0.02259036512642383</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4579486666666667</v>
+        <v>0.0008719999999999999</v>
       </c>
       <c r="N6">
-        <v>1.373846</v>
+        <v>0.002616</v>
       </c>
       <c r="O6">
-        <v>0.2208676086263132</v>
+        <v>0.0004050753965163206</v>
       </c>
       <c r="P6">
-        <v>0.2208676086263132</v>
+        <v>0.0004050753965163207</v>
       </c>
       <c r="Q6">
-        <v>1.500432017790445</v>
+        <v>6.716870666666666E-05</v>
       </c>
       <c r="R6">
-        <v>13.503888160114</v>
+        <v>0.00060451836</v>
       </c>
       <c r="S6">
-        <v>0.2164186265677312</v>
+        <v>9.150801111034595E-06</v>
       </c>
       <c r="T6">
-        <v>0.2164186265677312</v>
+        <v>9.150801111034596E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>9.829259</v>
       </c>
       <c r="I7">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J7">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.254922333333333</v>
+        <v>0.4865679999999999</v>
       </c>
       <c r="N7">
-        <v>3.764767</v>
+        <v>1.459704</v>
       </c>
       <c r="O7">
-        <v>0.6052462097827987</v>
+        <v>0.2260283549680654</v>
       </c>
       <c r="P7">
-        <v>0.6052462097827989</v>
+        <v>0.2260283549680655</v>
       </c>
       <c r="Q7">
-        <v>4.111652213072555</v>
+        <v>1.594200964370667</v>
       </c>
       <c r="R7">
-        <v>37.004869917653</v>
+        <v>14.347808679336</v>
       </c>
       <c r="S7">
-        <v>0.5930546098234573</v>
+        <v>0.217187685753299</v>
       </c>
       <c r="T7">
-        <v>0.5930546098234574</v>
+        <v>0.217187685753299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>9.829259</v>
       </c>
       <c r="I8">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J8">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07098500000000001</v>
+        <v>1.254922333333333</v>
       </c>
       <c r="N8">
-        <v>0.212955</v>
+        <v>3.764767</v>
       </c>
       <c r="O8">
-        <v>0.0342359053307405</v>
+        <v>0.5829566075369108</v>
       </c>
       <c r="P8">
-        <v>0.0342359053307405</v>
+        <v>0.582956607536911</v>
       </c>
       <c r="Q8">
-        <v>0.2325766500383334</v>
+        <v>4.111652213072555</v>
       </c>
       <c r="R8">
-        <v>2.093189850345</v>
+        <v>37.004869917653</v>
       </c>
       <c r="S8">
-        <v>0.03354628438757414</v>
+        <v>0.5601553685749919</v>
       </c>
       <c r="T8">
-        <v>0.03354628438757415</v>
+        <v>0.5601553685749922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,45 +980,45 @@
         <v>9.829259</v>
       </c>
       <c r="I9">
-        <v>0.9798567925543612</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J9">
-        <v>0.9798567925543613</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.289552</v>
+        <v>0.000891</v>
       </c>
       <c r="N9">
-        <v>0.868656</v>
+        <v>0.002673</v>
       </c>
       <c r="O9">
-        <v>0.1396502762601475</v>
+        <v>0.0004139015806147266</v>
       </c>
       <c r="P9">
-        <v>0.1396502762601475</v>
+        <v>0.0004139015806147268</v>
       </c>
       <c r="Q9">
-        <v>0.9486938673226667</v>
+        <v>0.002919289923</v>
       </c>
       <c r="R9">
-        <v>8.538244805904</v>
+        <v>0.026273609307</v>
       </c>
       <c r="S9">
-        <v>0.1368372717755986</v>
+        <v>0.0003977126075002659</v>
       </c>
       <c r="T9">
-        <v>0.1368372717755986</v>
+        <v>0.0003977126075002661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.04116300000000001</v>
+        <v>3.276419666666667</v>
       </c>
       <c r="H10">
-        <v>0.123489</v>
+        <v>9.829259</v>
       </c>
       <c r="I10">
-        <v>0.01231034154820272</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="J10">
-        <v>0.01231034154820272</v>
+        <v>0.9608869019286738</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4579486666666667</v>
+        <v>0.4094323333333333</v>
       </c>
       <c r="N10">
-        <v>1.373846</v>
+        <v>1.228297</v>
       </c>
       <c r="O10">
-        <v>0.2208676086263132</v>
+        <v>0.1901960605178926</v>
       </c>
       <c r="P10">
-        <v>0.2208676086263132</v>
+        <v>0.1901960605178926</v>
       </c>
       <c r="Q10">
-        <v>0.018850540966</v>
+        <v>1.341472149102556</v>
       </c>
       <c r="R10">
-        <v>0.169654868694</v>
+        <v>12.073249341923</v>
       </c>
       <c r="S10">
-        <v>0.00271895569912468</v>
+        <v>0.1827569033500764</v>
       </c>
       <c r="T10">
-        <v>0.002718955699124681</v>
+        <v>0.1827569033500764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.276419666666667</v>
+      </c>
+      <c r="H11">
+        <v>9.829259</v>
+      </c>
+      <c r="I11">
+        <v>0.9608869019286738</v>
+      </c>
+      <c r="J11">
+        <v>0.9608869019286738</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.04116300000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.123489</v>
-      </c>
-      <c r="I11">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="J11">
-        <v>0.01231034154820272</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>1.254922333333333</v>
+        <v>0.0008719999999999999</v>
       </c>
       <c r="N11">
-        <v>3.764767</v>
+        <v>0.002616</v>
       </c>
       <c r="O11">
-        <v>0.6052462097827987</v>
+        <v>0.0004050753965163206</v>
       </c>
       <c r="P11">
-        <v>0.6052462097827989</v>
+        <v>0.0004050753965163207</v>
       </c>
       <c r="Q11">
-        <v>0.05165636800700001</v>
+        <v>0.002857037949333334</v>
       </c>
       <c r="R11">
-        <v>0.4649073120630001</v>
+        <v>0.025713341544</v>
       </c>
       <c r="S11">
-        <v>0.007450787563181407</v>
+        <v>0.0003892316428060964</v>
       </c>
       <c r="T11">
-        <v>0.00745078756318141</v>
+        <v>0.0003892316428060965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H12">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I12">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J12">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.07098500000000001</v>
+        <v>0.4865679999999999</v>
       </c>
       <c r="N12">
-        <v>0.212955</v>
+        <v>1.459704</v>
       </c>
       <c r="O12">
-        <v>0.0342359053307405</v>
+        <v>0.2260283549680654</v>
       </c>
       <c r="P12">
-        <v>0.0342359053307405</v>
+        <v>0.2260283549680655</v>
       </c>
       <c r="Q12">
-        <v>0.002921955555000001</v>
+        <v>0.027412754552</v>
       </c>
       <c r="R12">
-        <v>0.026297599995</v>
+        <v>0.246714790968</v>
       </c>
       <c r="S12">
-        <v>0.0004214556878333498</v>
+        <v>0.003734606147112954</v>
       </c>
       <c r="T12">
-        <v>0.0004214556878333498</v>
+        <v>0.003734606147112955</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04116300000000001</v>
+        <v>0.056339</v>
       </c>
       <c r="H13">
-        <v>0.123489</v>
+        <v>0.169017</v>
       </c>
       <c r="I13">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="J13">
-        <v>0.01231034154820272</v>
+        <v>0.01652273294490242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.289552</v>
+        <v>1.254922333333333</v>
       </c>
       <c r="N13">
-        <v>0.868656</v>
+        <v>3.764767</v>
       </c>
       <c r="O13">
-        <v>0.1396502762601475</v>
+        <v>0.5829566075369108</v>
       </c>
       <c r="P13">
-        <v>0.1396502762601475</v>
+        <v>0.582956607536911</v>
       </c>
       <c r="Q13">
-        <v>0.011918828976</v>
+        <v>0.07070106933766666</v>
       </c>
       <c r="R13">
-        <v>0.107269460784</v>
+        <v>0.636309624039</v>
       </c>
       <c r="S13">
-        <v>0.001719142598063282</v>
+        <v>0.009632036344798667</v>
       </c>
       <c r="T13">
-        <v>0.001719142598063282</v>
+        <v>0.009632036344798671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.056339</v>
+      </c>
+      <c r="H14">
+        <v>0.169017</v>
+      </c>
+      <c r="I14">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="J14">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.000891</v>
+      </c>
+      <c r="N14">
+        <v>0.002673</v>
+      </c>
+      <c r="O14">
+        <v>0.0004139015806147266</v>
+      </c>
+      <c r="P14">
+        <v>0.0004139015806147268</v>
+      </c>
+      <c r="Q14">
+        <v>5.0198049E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.000451782441</v>
+      </c>
+      <c r="S14">
+        <v>6.83878528197013E-06</v>
+      </c>
+      <c r="T14">
+        <v>6.838785281970132E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.056339</v>
+      </c>
+      <c r="H15">
+        <v>0.169017</v>
+      </c>
+      <c r="I15">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="J15">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4094323333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.228297</v>
+      </c>
+      <c r="O15">
+        <v>0.1901960605178926</v>
+      </c>
+      <c r="P15">
+        <v>0.1901960605178926</v>
+      </c>
+      <c r="Q15">
+        <v>0.02306700822766667</v>
+      </c>
+      <c r="R15">
+        <v>0.207603074049</v>
+      </c>
+      <c r="S15">
+        <v>0.003142558715109639</v>
+      </c>
+      <c r="T15">
+        <v>0.00314255871510964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.056339</v>
+      </c>
+      <c r="H16">
+        <v>0.169017</v>
+      </c>
+      <c r="I16">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="J16">
+        <v>0.01652273294490242</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.0008719999999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.002616</v>
+      </c>
+      <c r="O16">
+        <v>0.0004050753965163206</v>
+      </c>
+      <c r="P16">
+        <v>0.0004050753965163207</v>
+      </c>
+      <c r="Q16">
+        <v>4.9127608E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.000442148472</v>
+      </c>
+      <c r="S16">
+        <v>6.692952599189623E-06</v>
+      </c>
+      <c r="T16">
+        <v>6.692952599189624E-06</v>
       </c>
     </row>
   </sheetData>
